--- a/Livermore_highfrequency/report/XAUUSD_DXY_TNX_D1_sm_est.xlsx
+++ b/Livermore_highfrequency/report/XAUUSD_DXY_TNX_D1_sm_est.xlsx
@@ -2257,7 +2257,7 @@
       <c r="B17" s="2">
         <v>60820</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>1562.86</v>
       </c>
       <c r="J17" s="3">
@@ -2277,7 +2277,7 @@
       <c r="B18" s="2">
         <v>70137</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="8">
         <v>1571.18</v>
       </c>
       <c r="J18" s="3">
@@ -2423,7 +2423,7 @@
       <c r="M25" s="7">
         <v>97.95999999999999</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="8">
         <v>1.6</v>
       </c>
       <c r="Y25" s="3">
@@ -2443,7 +2443,7 @@
       <c r="J26" s="8">
         <v>98.3</v>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="10">
         <v>1.65</v>
       </c>
       <c r="Y26" s="3">
@@ -2460,10 +2460,10 @@
       <c r="D27" s="3">
         <v>1567.05</v>
       </c>
-      <c r="K27" s="2">
+      <c r="J27" s="8">
         <v>98.5</v>
       </c>
-      <c r="P27" s="7">
+      <c r="Q27" s="7">
         <v>1.64</v>
       </c>
       <c r="Y27" s="7">
@@ -2480,7 +2480,7 @@
       <c r="D28" s="3">
         <v>1572.13</v>
       </c>
-      <c r="K28" s="2">
+      <c r="J28" s="8">
         <v>98.68000000000001</v>
       </c>
       <c r="S28" s="3">
@@ -2543,7 +2543,7 @@
       <c r="K31" s="2">
         <v>99.05</v>
       </c>
-      <c r="O31" s="3">
+      <c r="P31" s="8">
         <v>1.63</v>
       </c>
       <c r="Y31" s="9">
@@ -2563,7 +2563,7 @@
       <c r="K32" s="2">
         <v>99.06999999999999</v>
       </c>
-      <c r="O32" s="7">
+      <c r="P32" s="7">
         <v>1.62</v>
       </c>
       <c r="Y32" s="7">
@@ -2577,13 +2577,13 @@
       <c r="B33" s="2">
         <v>49675</v>
       </c>
-      <c r="E33" s="2">
+      <c r="D33" s="8">
         <v>1582.78</v>
       </c>
       <c r="K33" s="2">
         <v>99.12</v>
       </c>
-      <c r="O33" s="7">
+      <c r="P33" s="7">
         <v>1.59</v>
       </c>
       <c r="Y33" s="7">
@@ -2603,10 +2603,10 @@
       <c r="K34" s="2">
         <v>99.44</v>
       </c>
-      <c r="T34" s="3">
+      <c r="S34" s="9">
         <v>1.56</v>
       </c>
-      <c r="U34" s="3">
+      <c r="V34" s="3">
         <v>135.97</v>
       </c>
     </row>
@@ -2623,10 +2623,10 @@
       <c r="K35" s="2">
         <v>99.70999999999999</v>
       </c>
-      <c r="T35" s="7">
+      <c r="S35" s="7">
         <v>1.57</v>
       </c>
-      <c r="U35" s="7">
+      <c r="V35" s="7">
         <v>134.41</v>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       <c r="R36" s="4">
         <v>1.52</v>
       </c>
-      <c r="U36" s="3">
+      <c r="V36" s="8">
         <v>143.64</v>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="R57" s="4">
         <v>0.9399999999999999</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="8">
         <v>112.63</v>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       <c r="R58" s="6">
         <v>0.76</v>
       </c>
-      <c r="V58" s="8">
+      <c r="W58" s="2">
         <v>161.92</v>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       <c r="R75" s="7">
         <v>0.65</v>
       </c>
-      <c r="Y75" s="3">
+      <c r="Y75" s="9">
         <v>258.64</v>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       <c r="R95" s="7">
         <v>0.64</v>
       </c>
-      <c r="W95" s="2">
+      <c r="W95" s="10">
         <v>279.29</v>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       <c r="P98" s="7">
         <v>0.68</v>
       </c>
-      <c r="W98" s="2">
+      <c r="W98" s="10">
         <v>291.36</v>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       <c r="P107" s="8">
         <v>0.76</v>
       </c>
-      <c r="Y107" s="3">
+      <c r="Y107" s="9">
         <v>278.51</v>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       <c r="Q109" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y109" s="9">
+      <c r="X109" s="6">
         <v>261.71</v>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       <c r="Q110" s="7">
         <v>0.88</v>
       </c>
-      <c r="Y110" s="7">
+      <c r="X110" s="7">
         <v>274.02</v>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       <c r="R113" s="6">
         <v>0.65</v>
       </c>
-      <c r="W113" s="2">
+      <c r="W113" s="10">
         <v>308.67</v>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       <c r="E119" s="2">
         <v>1740.95</v>
       </c>
-      <c r="K119" s="10">
+      <c r="J119" s="8">
         <v>97.62</v>
       </c>
       <c r="R119" s="7">
@@ -4320,7 +4320,7 @@
       <c r="E120" s="2">
         <v>1755.79</v>
       </c>
-      <c r="K120" s="7">
+      <c r="J120" s="7">
         <v>97.04000000000001</v>
       </c>
       <c r="R120" s="7">
@@ -4346,7 +4346,7 @@
       <c r="R121" s="7">
         <v>0.71</v>
       </c>
-      <c r="W121" s="2">
+      <c r="W121" s="10">
         <v>320.33</v>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       <c r="R126" s="7">
         <v>0.65</v>
       </c>
-      <c r="W126" s="2">
+      <c r="W126" s="10">
         <v>324.99</v>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       <c r="R131" s="7">
         <v>0.65</v>
       </c>
-      <c r="W131" s="2">
+      <c r="W131" s="10">
         <v>345.78</v>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       <c r="R136" s="7">
         <v>0.63</v>
       </c>
-      <c r="W136" s="2">
+      <c r="W136" s="10">
         <v>352.69</v>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       <c r="R147" s="7">
         <v>0.54</v>
       </c>
-      <c r="W147" s="2">
+      <c r="W147" s="10">
         <v>457.48</v>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       <c r="R153" s="7">
         <v>0.57</v>
       </c>
-      <c r="Y153" s="3">
+      <c r="Y153" s="9">
         <v>474.8</v>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       <c r="P154" s="3">
         <v>0.66</v>
       </c>
-      <c r="Y154" s="9">
+      <c r="X154" s="6">
         <v>421.58</v>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="P155" s="3">
         <v>0.67</v>
       </c>
-      <c r="Y155" s="7">
+      <c r="X155" s="7">
         <v>424.95</v>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       <c r="P156" s="8">
         <v>0.72</v>
       </c>
-      <c r="Y156" s="7">
+      <c r="X156" s="7">
         <v>430.32</v>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       <c r="P157" s="7">
         <v>0.71</v>
       </c>
-      <c r="Y157" s="7">
+      <c r="X157" s="7">
         <v>430.71</v>
       </c>
     </row>
@@ -5126,11 +5126,11 @@
       <c r="P160" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y160" s="3">
+      <c r="X160" s="6">
         <v>437.21</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:24">
       <c r="A161" s="5" t="s">
         <v>170</v>
       </c>
@@ -5146,11 +5146,11 @@
       <c r="R161" s="6">
         <v>0.64</v>
       </c>
-      <c r="Y161" s="7">
+      <c r="X161" s="7">
         <v>443.57</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:24">
       <c r="A162" s="5" t="s">
         <v>171</v>
       </c>
@@ -5166,11 +5166,11 @@
       <c r="R162" s="7">
         <v>0.64</v>
       </c>
-      <c r="Y162" s="3">
+      <c r="X162" s="4">
         <v>435.02</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:24">
       <c r="A163" s="5" t="s">
         <v>172</v>
       </c>
@@ -5186,11 +5186,11 @@
       <c r="R163" s="7">
         <v>0.65</v>
       </c>
-      <c r="Y163" s="3">
+      <c r="X163" s="4">
         <v>428.2</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:24">
       <c r="A164" s="5" t="s">
         <v>173</v>
       </c>
@@ -5206,11 +5206,11 @@
       <c r="R164" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y164" s="7">
+      <c r="X164" s="7">
         <v>428.37</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:24">
       <c r="A165" s="5" t="s">
         <v>174</v>
       </c>
@@ -5226,11 +5226,11 @@
       <c r="R165" s="7">
         <v>0.6899999999999999</v>
       </c>
-      <c r="Y165" s="7">
+      <c r="X165" s="7">
         <v>435.03</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:24">
       <c r="A166" s="5" t="s">
         <v>175</v>
       </c>
@@ -5246,11 +5246,11 @@
       <c r="Q166" s="10">
         <v>0.75</v>
       </c>
-      <c r="Y166" s="9">
+      <c r="X166" s="6">
         <v>422.34</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:24">
       <c r="A167" s="5" t="s">
         <v>176</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>446.28</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:24">
       <c r="A168" s="5" t="s">
         <v>177</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>454.4</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:24">
       <c r="A169" s="5" t="s">
         <v>178</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>452.01</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:24">
       <c r="A170" s="5" t="s">
         <v>179</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>438.54</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:24">
       <c r="A171" s="5" t="s">
         <v>180</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>439.17</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:24">
       <c r="A172" s="5" t="s">
         <v>181</v>
       </c>
@@ -5366,11 +5366,11 @@
       <c r="P172" s="8">
         <v>0.72</v>
       </c>
-      <c r="Y172" s="3">
+      <c r="X172" s="4">
         <v>430.47</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:24">
       <c r="A173" s="5" t="s">
         <v>182</v>
       </c>
@@ -5386,11 +5386,11 @@
       <c r="P173" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y173" s="3">
+      <c r="X173" s="4">
         <v>425.52</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:24">
       <c r="A174" s="5" t="s">
         <v>183</v>
       </c>
@@ -5406,11 +5406,11 @@
       <c r="P174" s="7">
         <v>0.7</v>
       </c>
-      <c r="Y174" s="7">
+      <c r="X174" s="7">
         <v>433.04</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:24">
       <c r="A175" s="5" t="s">
         <v>184</v>
       </c>
@@ -5426,11 +5426,11 @@
       <c r="P175" s="7">
         <v>0.6899999999999999</v>
       </c>
-      <c r="Y175" s="7">
+      <c r="X175" s="7">
         <v>433.45</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:24">
       <c r="A176" s="5" t="s">
         <v>185</v>
       </c>
@@ -5446,11 +5446,11 @@
       <c r="P176" s="7">
         <v>0.67</v>
       </c>
-      <c r="Y176" s="7">
+      <c r="X176" s="7">
         <v>431.57</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:24">
       <c r="A177" s="5" t="s">
         <v>186</v>
       </c>
@@ -5466,11 +5466,11 @@
       <c r="P177" s="7">
         <v>0.67</v>
       </c>
-      <c r="Y177" s="7">
+      <c r="X177" s="7">
         <v>441.12</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:24">
       <c r="A178" s="5" t="s">
         <v>187</v>
       </c>
@@ -5486,11 +5486,11 @@
       <c r="P178" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y178" s="7">
+      <c r="X178" s="7">
         <v>439.93</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:24">
       <c r="A179" s="5" t="s">
         <v>188</v>
       </c>
@@ -5506,11 +5506,11 @@
       <c r="P179" s="7">
         <v>0.6899999999999999</v>
       </c>
-      <c r="Y179" s="7">
+      <c r="X179" s="7">
         <v>438.13</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:24">
       <c r="A180" s="5" t="s">
         <v>189</v>
       </c>
@@ -5526,11 +5526,11 @@
       <c r="P180" s="7">
         <v>0.68</v>
       </c>
-      <c r="Y180" s="7">
+      <c r="X180" s="7">
         <v>435.67</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:24">
       <c r="A181" s="5" t="s">
         <v>190</v>
       </c>
@@ -5546,11 +5546,11 @@
       <c r="P181" s="7">
         <v>0.6899999999999999</v>
       </c>
-      <c r="Y181" s="7">
+      <c r="X181" s="7">
         <v>438.05</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:24">
       <c r="A182" s="5" t="s">
         <v>191</v>
       </c>
@@ -5560,17 +5560,17 @@
       <c r="F182" s="4">
         <v>1908.53</v>
       </c>
-      <c r="K182" s="2">
+      <c r="J182" s="8">
         <v>93.66</v>
       </c>
       <c r="P182" s="7">
         <v>0.67</v>
       </c>
-      <c r="Y182" s="9">
+      <c r="X182" s="4">
         <v>414.34</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:24">
       <c r="A183" s="5" t="s">
         <v>192</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>410.26</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:24">
       <c r="A184" s="5" t="s">
         <v>193</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>386.56</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:24">
       <c r="A185" s="5" t="s">
         <v>194</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>387.7</v>
       </c>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:24">
       <c r="A186" s="5" t="s">
         <v>195</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>386.76</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:24">
       <c r="A187" s="5" t="s">
         <v>196</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>397.65</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:24">
       <c r="A188" s="5" t="s">
         <v>197</v>
       </c>
@@ -5686,11 +5686,11 @@
       <c r="R188" s="6">
         <v>0.64</v>
       </c>
-      <c r="W188" s="2">
+      <c r="W188" s="10">
         <v>409.86</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:24">
       <c r="A189" s="5" t="s">
         <v>198</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>403.15</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:24">
       <c r="A190" s="5" t="s">
         <v>199</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>413.3</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:24">
       <c r="A191" s="5" t="s">
         <v>200</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>407.27</v>
       </c>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:24">
       <c r="A192" s="5" t="s">
         <v>201</v>
       </c>
@@ -5900,7 +5900,7 @@
       <c r="F199" s="7">
         <v>1905.9</v>
       </c>
-      <c r="K199" s="10">
+      <c r="J199" s="8">
         <v>93.86</v>
       </c>
       <c r="R199" s="7">
@@ -5920,7 +5920,7 @@
       <c r="F200" s="7">
         <v>1903.62</v>
       </c>
-      <c r="K200" s="7">
+      <c r="J200" s="7">
         <v>93.68000000000001</v>
       </c>
       <c r="R200" s="7">
@@ -5940,7 +5940,7 @@
       <c r="F201" s="7">
         <v>1903</v>
       </c>
-      <c r="K201" s="7">
+      <c r="J201" s="7">
         <v>93.43000000000001</v>
       </c>
       <c r="R201" s="7">
@@ -6546,7 +6546,7 @@
       <c r="Q231" s="7">
         <v>0.92</v>
       </c>
-      <c r="W231" s="2">
+      <c r="W231" s="10">
         <v>389.58</v>
       </c>
     </row>
@@ -6730,7 +6730,7 @@
         <v>401.2</v>
       </c>
     </row>
-    <row r="241" spans="1:25">
+    <row r="241" spans="1:24">
       <c r="A241" s="5" t="s">
         <v>250</v>
       </c>
@@ -6746,11 +6746,11 @@
       <c r="R241" s="7">
         <v>0.93</v>
       </c>
-      <c r="W241" s="2">
+      <c r="W241" s="10">
         <v>416.28</v>
       </c>
     </row>
-    <row r="242" spans="1:25">
+    <row r="242" spans="1:24">
       <c r="A242" s="5" t="s">
         <v>251</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>410.16</v>
       </c>
     </row>
-    <row r="243" spans="1:25">
+    <row r="243" spans="1:24">
       <c r="A243" s="5" t="s">
         <v>252</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>410.48</v>
       </c>
     </row>
-    <row r="244" spans="1:25">
+    <row r="244" spans="1:24">
       <c r="A244" s="5" t="s">
         <v>253</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>400.65</v>
       </c>
     </row>
-    <row r="245" spans="1:25">
+    <row r="245" spans="1:24">
       <c r="A245" s="5" t="s">
         <v>254</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>402.01</v>
       </c>
     </row>
-    <row r="246" spans="1:25">
+    <row r="246" spans="1:24">
       <c r="A246" s="5" t="s">
         <v>255</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>407.65</v>
       </c>
     </row>
-    <row r="247" spans="1:25">
+    <row r="247" spans="1:24">
       <c r="A247" s="5" t="s">
         <v>256</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>411.24</v>
       </c>
     </row>
-    <row r="248" spans="1:25">
+    <row r="248" spans="1:24">
       <c r="A248" s="5" t="s">
         <v>257</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>420.1</v>
       </c>
     </row>
-    <row r="249" spans="1:25">
+    <row r="249" spans="1:24">
       <c r="A249" s="5" t="s">
         <v>258</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>441.81</v>
       </c>
     </row>
-    <row r="250" spans="1:25">
+    <row r="250" spans="1:24">
       <c r="A250" s="5" t="s">
         <v>259</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>445.93</v>
       </c>
     </row>
-    <row r="251" spans="1:25">
+    <row r="251" spans="1:24">
       <c r="A251" s="5" t="s">
         <v>260</v>
       </c>
@@ -6946,11 +6946,11 @@
       <c r="Q251" s="2">
         <v>1.04</v>
       </c>
-      <c r="Y251" s="3">
+      <c r="X251" s="4">
         <v>422.9</v>
       </c>
     </row>
-    <row r="252" spans="1:25">
+    <row r="252" spans="1:24">
       <c r="A252" s="5" t="s">
         <v>261</v>
       </c>
@@ -6966,11 +6966,11 @@
       <c r="Q252" s="2">
         <v>1.07</v>
       </c>
-      <c r="Y252" s="9">
+      <c r="X252" s="4">
         <v>416.31</v>
       </c>
     </row>
-    <row r="253" spans="1:25">
+    <row r="253" spans="1:24">
       <c r="A253" s="5" t="s">
         <v>262</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>379.43</v>
       </c>
     </row>
-    <row r="254" spans="1:25">
+    <row r="254" spans="1:24">
       <c r="A254" s="5" t="s">
         <v>263</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>373.92</v>
       </c>
     </row>
-    <row r="255" spans="1:25">
+    <row r="255" spans="1:24">
       <c r="A255" s="5" t="s">
         <v>264</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>379.78</v>
       </c>
     </row>
-    <row r="256" spans="1:25">
+    <row r="256" spans="1:24">
       <c r="A256" s="5" t="s">
         <v>265</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="F269" s="4">
         <v>1836.83</v>
       </c>
-      <c r="K269" s="2">
+      <c r="J269" s="8">
         <v>91.2</v>
       </c>
       <c r="Q269" s="2">
@@ -7320,7 +7320,7 @@
       <c r="F270" s="4">
         <v>1833.19</v>
       </c>
-      <c r="K270" s="7">
+      <c r="J270" s="7">
         <v>91.17</v>
       </c>
       <c r="Q270" s="2">
@@ -8206,7 +8206,7 @@
       <c r="S314" s="3">
         <v>1.63</v>
       </c>
-      <c r="W314" s="2">
+      <c r="W314" s="10">
         <v>268.53</v>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
       <c r="S341" s="7">
         <v>1.64</v>
       </c>
-      <c r="W341" s="2">
+      <c r="W341" s="10">
         <v>334.51</v>
       </c>
     </row>
@@ -9466,7 +9466,7 @@
       <c r="Q377" s="2">
         <v>1.36</v>
       </c>
-      <c r="W377" s="2">
+      <c r="W377" s="10">
         <v>319.34</v>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       <c r="R381" s="4">
         <v>1.3</v>
       </c>
-      <c r="W381" s="2">
+      <c r="W381" s="10">
         <v>327.62</v>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       <c r="R383" s="6">
         <v>1.18</v>
       </c>
-      <c r="W383" s="2">
+      <c r="W383" s="10">
         <v>327.77</v>
       </c>
     </row>
@@ -9746,7 +9746,7 @@
       <c r="Q391" s="7">
         <v>1.27</v>
       </c>
-      <c r="W391" s="2">
+      <c r="W391" s="10">
         <v>339.2</v>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       <c r="R403" s="4">
         <v>1.26</v>
       </c>
-      <c r="W403" s="2">
+      <c r="W403" s="10">
         <v>313.77</v>
       </c>
     </row>
@@ -10086,7 +10086,7 @@
       <c r="R408" s="7">
         <v>1.25</v>
       </c>
-      <c r="W408" s="2">
+      <c r="W408" s="10">
         <v>318.96</v>
       </c>
     </row>
@@ -10266,7 +10266,7 @@
       <c r="Q417" s="10">
         <v>1.37</v>
       </c>
-      <c r="X417" s="4">
+      <c r="X417" s="6">
         <v>307.71</v>
       </c>
     </row>
@@ -10840,10 +10840,10 @@
       <c r="F446" s="7">
         <v>1770.72</v>
       </c>
-      <c r="L446" s="4">
+      <c r="L446" s="6">
         <v>93.73</v>
       </c>
-      <c r="Q446" s="2">
+      <c r="Q446" s="10">
         <v>1.63</v>
       </c>
       <c r="X446" s="4">
@@ -10857,7 +10857,7 @@
       <c r="B447" s="2">
         <v>37910</v>
       </c>
-      <c r="E447" s="2">
+      <c r="E447" s="10">
         <v>1786.42</v>
       </c>
       <c r="L447" s="4">
@@ -10883,7 +10883,7 @@
       <c r="L448" s="7">
         <v>93.77</v>
       </c>
-      <c r="Q448" s="2">
+      <c r="Q448" s="10">
         <v>1.68</v>
       </c>
       <c r="X448" s="4">
@@ -10917,7 +10917,7 @@
       <c r="B450" s="2">
         <v>29533</v>
       </c>
-      <c r="E450" s="2">
+      <c r="E450" s="10">
         <v>1808.17</v>
       </c>
       <c r="L450" s="7">
